--- a/ASA/ASA-Lab.xlsx
+++ b/ASA/ASA-Lab.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\learning\ASA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{10D166B4-B9F1-4DB9-8AFD-27EA4D65B106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E14CEBD-11C0-4F16-B4AE-78B452E51E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="0" windowWidth="19965" windowHeight="13065"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTER" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Vasiliu Gabriela</author>
     <author>cniki</author>
   </authors>
   <commentList>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0">
+    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -90,13 +90,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Vasiliu Gabriela</author>
     <author>cniki</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t xml:space="preserve">Tunnel attributes </t>
   </si>
@@ -458,11 +458,14 @@
   <si>
     <t>crypto map VPN interface outside</t>
   </si>
+  <si>
+    <t>Multiple sequance numbers may exist for the same tunnel on the same interface: different directions, backup vpn-s, multiple branch offices. They all are tried in ored.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,10 +873,76 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -888,18 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -909,21 +966,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,45 +982,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1294,11 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,27 +1317,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="G2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="56" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1343,59 +1346,59 @@
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="44"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="45"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="5"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="28">
+      <c r="A8" s="52"/>
+      <c r="B8" s="22">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -1410,16 +1413,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="17">
         <v>3</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1428,19 +1431,19 @@
       <c r="F9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="21"/>
@@ -1450,48 +1453,51 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="19">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="16" t="s">
         <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
         <v>6</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="25"/>
+      <c r="G12" s="15" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D7"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1500,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1529,13 +1535,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1543,19 +1549,19 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56">
+      <c r="A4" s="40">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1566,7 +1572,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56">
+      <c r="A5" s="40">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1577,7 +1583,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1588,7 +1594,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="42">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">

--- a/ASA/ASA-Lab.xlsx
+++ b/ASA/ASA-Lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\learning\ASA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E14CEBD-11C0-4F16-B4AE-78B452E51E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5773CE1B-0D96-4AF6-9FD9-310FDE40DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTER" sheetId="1" r:id="rId1"/>
@@ -936,6 +936,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -965,24 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,44 +1300,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
     <col min="5" max="5" width="77.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="51" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
     <col min="8" max="8" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="G2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1346,44 +1346,44 @@
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="44"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="58"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="5"/>
       <c r="F7" s="9"/>
       <c r="G7" s="31" t="s">
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="22">
         <v>2</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="17">
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="18">
         <v>4</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="19">
         <v>5</v>
       </c>
@@ -1491,13 +1491,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ASA/ASA-Lab.xlsx
+++ b/ASA/ASA-Lab.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="ROUTER" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ASA" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Troubleshootings" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,10 +46,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -56,14 +56,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Many crypto maps may be applied to an interface (for backup – for example…</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -76,16 +89,16 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve"># tunnel-group wqedwq type ipsec-l2l
-WARNING: For IKEv1, L2L tunnel-groups that have names which are not an IP
-address may only be used if the tunnel authentication method is Digital Certificates and/or The peer is configured to use Aggressive Mode
+WARNING: For IKEv1, L2L tunnel-groups that have names which are not an IP address may only be used
+if the tunnel authentication method is Digital Certificates and/or 
+the peer is configured to use Aggressive Mode
 Tunnel Groups have two main elements: Attributes and Types</t>
         </r>
       </text>
@@ -104,10 +117,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -119,10 +131,9 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -134,8 +145,48 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">On router.
+On ASA use ## debug crypto ikev1 9
+9 = is a more detailed debug</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">R1 #sh crypto isakmp policy</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t xml:space="preserve">ROUTER</t>
   </si>
@@ -351,6 +402,56 @@
     <t xml:space="preserve">crypto map VPN  interface outside</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EXTREMELY IMPORTANT!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Conditional debug :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="20"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># debug crypto condition peer 24.17.23.12
+# debug crypto ikev1 9
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Both commands, otherwise debug don’t works!</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ASA-Wrong 1</t>
   </si>
   <si>
@@ -521,6 +622,233 @@
 crypto map VPN 1 set ikev1 transform-set S-2-S
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#debug crypto isakmp
+#sh debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t see debugs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># ping -c2  192.168.101.2
+PING 192.168.101.2 (192.168.101.2) 56(84) bytes of data.
+From 192.168.102.1 icmp_seq=1 Destination Host </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Unreachable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">From 192.168.102.1 icmp_seq=2 Destination Host </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Unreachable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Routing happens before VPN !
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Why I don’t see a debug ?
+The router doesn’t know where to send the traffic.
+No debug crypto show!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No def. Route (gateway)  route on the router.
+Add a def route on the router.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ROUTING
+- Is crypto-map applied to the interface?
+- Is the intersting traffic correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM_NO_STATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1 problem (isakmp policy).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PHASE 1 problem
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Check the phase 1 params. ALL!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MM = Main Mode
+On ASA debug show:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">All SA proposals found unacceptable!</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentication start AFTER negotiation.
+Until now, we can’t find a password problem.
+Authentication don’t even start.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mar 24 17:36:15.972: ISAKMP:(0):Checking ISAKMP transform 1 against priority 1 policy
+*Mar 24 17:36:15.972: ISAKMP:      encryption AES-CBC
+*Mar 24 17:36:15.972: ISAKMP:      keylength of 256
+*Mar 24 17:36:15.972: ISAKMP:      hash SHA
+*Mar 24 17:36:15.972: ISAKMP:      default group 5
+*Mar 24 17:36:15.972: ISAKMP:      auth pre-share
+*Mar 24 17:36:15.972: ISAKMP:      life type in seconds
+*Mar 24 17:36:15.972: ISAKMP:      life duration (VPI) of  0x0 0x1 0x51 0x80
+*Mar 24 17:36:15.972: ISAKMP:(0):</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">atts are acceptable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Next payload is 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">On ASA:
+ERROR, had problems decrypting packet, probably due to mismatched pre-shared key
+On R1 check for 3 dots: … :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">retransmitting phase 1 MM_KEY_EXCH...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MM_KEY_EXCH = Step 2 problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 #  His hash no match
+ASA# Session is being torn down. Reason: crypto map policy not found
+</t>
   </si>
 </sst>
 </file>
@@ -530,7 +858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -662,9 +990,24 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="20"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -675,6 +1018,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -853,7 +1211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1018,6 +1376,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1054,7 +1416,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,14 +1424,26 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1090,7 +1464,7 @@
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1125,7 +1499,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF2F5597"/>
       <rgbColor rgb="FF333F50"/>
@@ -1135,36 +1509,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="77.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="57.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="65.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
@@ -1233,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="true" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="10" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="n">
         <v>2</v>
@@ -1295,7 +1666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="10" customFormat="true" ht="56.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="32" t="n">
         <v>5</v>
@@ -1332,9 +1703,13 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="6">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
@@ -1343,8 +1718,8 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1354,24 +1729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="66.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="63.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="10" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="10" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,51 +1754,51 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="n">
+      <c r="A2" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>32</v>
+      <c r="C2" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="n">
+      <c r="A3" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="C3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="n">
+      <c r="A4" s="49" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="49" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1434,18 +1809,18 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="n">
+      <c r="A6" s="50" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>38</v>
+      <c r="C6" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="n">
+      <c r="A7" s="52" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -1454,12 +1829,105 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="77.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="68.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="10" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="53" customFormat="true" ht="86.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" s="53" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="105.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>